--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/124.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/124.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1572879861739596</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.267097399566736</v>
+        <v>-1.32881947256181</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07451113828732876</v>
+        <v>-0.01188383547589103</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1808420606039366</v>
+        <v>-0.2229980291327434</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.134031613381704</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.362841513176165</v>
+        <v>-1.430900194885783</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1811647312320274</v>
+        <v>-0.1033456280346847</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1854499723788444</v>
+        <v>-0.2159751978154726</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1098492562242151</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.496355610849311</v>
+        <v>-1.569023664381928</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1791148237123916</v>
+        <v>-0.09278072004886931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2069053790747478</v>
+        <v>-0.2632369545181872</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.08610988786965555</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.661183359928175</v>
+        <v>-1.744432381975608</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.195306757040569</v>
+        <v>-0.1011701563792307</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1916551767652064</v>
+        <v>-0.2520369256128265</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.06063927357833983</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.765776825016602</v>
+        <v>-1.840121013757582</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2063958222910206</v>
+        <v>-0.1258289085865877</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1970077130664777</v>
+        <v>-0.2390585581327391</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.03333974241039853</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.617800951003005</v>
+        <v>-1.719103467694524</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1088938107801377</v>
+        <v>-0.04204842903406475</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1853667496376626</v>
+        <v>-0.228538911637742</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.005129557122532141</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.419075265397513</v>
+        <v>-1.503864638180854</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04072562546370147</v>
+        <v>0.02338800630428131</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1688813466432125</v>
+        <v>-0.2056526578127481</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.02212109399612674</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.213031818760387</v>
+        <v>-1.279164697038096</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08760968163099134</v>
+        <v>0.1677780022066062</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1612190142621236</v>
+        <v>-0.1868822795560258</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.04830463141029465</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8585657233938455</v>
+        <v>-0.917423182034557</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1699213528040601</v>
+        <v>0.2381260393227691</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1399650942027657</v>
+        <v>-0.1316019387380407</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.07520145260986902</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5075336611371216</v>
+        <v>-0.5384823005201133</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1567575592164273</v>
+        <v>0.1989193679375978</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07349202471987448</v>
+        <v>-0.06298989880196822</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1063985812907055</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03210157331082443</v>
+        <v>0.05377306712418225</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1323382548959793</v>
+        <v>0.1284837279359804</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04440247847673022</v>
+        <v>0.05394681284700038</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1459946752135837</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5215958362207839</v>
+        <v>0.5506069917871398</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07739226509081228</v>
+        <v>0.0661528148869971</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1877310194169645</v>
+        <v>0.2041989018343237</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.196638976400736</v>
       </c>
       <c r="E14" t="n">
-        <v>1.097568747555266</v>
+        <v>1.145570748640071</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.05655254676915177</v>
+        <v>-0.06542817911378575</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2917083442110274</v>
+        <v>0.3144573535154759</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2595938447930597</v>
       </c>
       <c r="E15" t="n">
-        <v>1.729646926879096</v>
+        <v>1.77578298650372</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2011425692599311</v>
+        <v>-0.194636594966842</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5131231771492407</v>
+        <v>0.5505938513543216</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3362186562756931</v>
       </c>
       <c r="E16" t="n">
-        <v>2.400901116578188</v>
+        <v>2.479918919258167</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3473868262377101</v>
+        <v>-0.3324403139310777</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6385033469079343</v>
+        <v>0.6691424560956534</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4266174482628693</v>
       </c>
       <c r="E17" t="n">
-        <v>3.063977576920101</v>
+        <v>3.162266554351984</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4822266475774011</v>
+        <v>-0.4495989528898644</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7836627881541681</v>
+        <v>0.8081842958409797</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5303148907746461</v>
       </c>
       <c r="E18" t="n">
-        <v>3.663454342422031</v>
+        <v>3.779865436758273</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6250354113972718</v>
+        <v>-0.6023813052187325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9582699393459394</v>
+        <v>1.003175178429927</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6456096033783513</v>
       </c>
       <c r="E19" t="n">
-        <v>4.167754953021896</v>
+        <v>4.290572738381044</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7980759309874981</v>
+        <v>-0.7667359987161428</v>
       </c>
       <c r="G19" t="n">
-        <v>1.071213419466273</v>
+        <v>1.111904959759898</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7696226740014828</v>
       </c>
       <c r="E20" t="n">
-        <v>4.640378360241405</v>
+        <v>4.744285602727104</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9741372900778145</v>
+        <v>-0.9476155165064579</v>
       </c>
       <c r="G20" t="n">
-        <v>1.247320040047407</v>
+        <v>1.3085573770763</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8972972998879947</v>
       </c>
       <c r="E21" t="n">
-        <v>5.145182687432634</v>
+        <v>5.281137985513778</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.176443013602215</v>
+        <v>-1.172665869191034</v>
       </c>
       <c r="G21" t="n">
-        <v>1.404765785978638</v>
+        <v>1.471184833682165</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.020469500319007</v>
       </c>
       <c r="E22" t="n">
-        <v>5.536542738008347</v>
+        <v>5.669662622696947</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.364243159343437</v>
+        <v>-1.380372310603705</v>
       </c>
       <c r="G22" t="n">
-        <v>1.526059281130878</v>
+        <v>1.584954701021953</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.127666437663115</v>
       </c>
       <c r="E23" t="n">
-        <v>5.785875150492825</v>
+        <v>5.901055424288431</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.567464333020837</v>
+        <v>-1.577747451725107</v>
       </c>
       <c r="G23" t="n">
-        <v>1.672310838349111</v>
+        <v>1.719378408655735</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.207628612588275</v>
       </c>
       <c r="E24" t="n">
-        <v>6.068136027571567</v>
+        <v>6.186157554952081</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.713604926584161</v>
+        <v>-1.740174881742518</v>
       </c>
       <c r="G24" t="n">
-        <v>1.830651593760069</v>
+        <v>1.893242395369234</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.25398338277212</v>
       </c>
       <c r="E25" t="n">
-        <v>6.1831513159329</v>
+        <v>6.268032671745968</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.890355428373387</v>
+        <v>-1.921890277064878</v>
       </c>
       <c r="G25" t="n">
-        <v>1.853041431234154</v>
+        <v>1.888386275418871</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.2680620771014</v>
       </c>
       <c r="E26" t="n">
-        <v>6.214780337726255</v>
+        <v>6.30589025869514</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.931655808720921</v>
+        <v>-1.964772619518912</v>
       </c>
       <c r="G26" t="n">
-        <v>1.849503734709882</v>
+        <v>1.890060950579144</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.255546820803021</v>
       </c>
       <c r="E27" t="n">
-        <v>6.210184106336075</v>
+        <v>6.265279021046514</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.992521563510677</v>
+        <v>-2.038975183595074</v>
       </c>
       <c r="G27" t="n">
-        <v>1.942797887622766</v>
+        <v>1.986634371504209</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.222940787042756</v>
       </c>
       <c r="E28" t="n">
-        <v>6.292173106881052</v>
+        <v>6.34919236497531</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.071275827510247</v>
+        <v>-2.119679341820052</v>
       </c>
       <c r="G28" t="n">
-        <v>1.976992213911848</v>
+        <v>2.014440987395565</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.175358986866938</v>
       </c>
       <c r="E29" t="n">
-        <v>6.182781923765901</v>
+        <v>6.220519786771617</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.136518076452502</v>
+        <v>-2.179073368134173</v>
       </c>
       <c r="G29" t="n">
-        <v>1.987339574732118</v>
+        <v>2.030886969091561</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.116350925823645</v>
       </c>
       <c r="E30" t="n">
-        <v>6.142943051557365</v>
+        <v>6.186772235198354</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.252918950452107</v>
+        <v>-2.31962781770168</v>
       </c>
       <c r="G30" t="n">
-        <v>2.016896788284473</v>
+        <v>2.078186687044639</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.048906458161377</v>
       </c>
       <c r="E31" t="n">
-        <v>6.025233974468306</v>
+        <v>6.042744331222574</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.320161465278908</v>
+        <v>-2.4146747583477</v>
       </c>
       <c r="G31" t="n">
-        <v>1.944243335232765</v>
+        <v>1.981763651072937</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9758361561382664</v>
       </c>
       <c r="E32" t="n">
-        <v>5.808757024173546</v>
+        <v>5.822728224355451</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.344304820510174</v>
+        <v>-2.451946135988372</v>
       </c>
       <c r="G32" t="n">
-        <v>1.9167112083825</v>
+        <v>1.939428096628949</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9002058017437063</v>
       </c>
       <c r="E33" t="n">
-        <v>5.629549261447321</v>
+        <v>5.65649152886886</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.397743310661478</v>
+        <v>-2.521480926317899</v>
       </c>
       <c r="G33" t="n">
-        <v>1.910925037798229</v>
+        <v>1.938955041047494</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.823699771101697</v>
       </c>
       <c r="E34" t="n">
-        <v>5.381599514504933</v>
+        <v>5.41580114103447</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.485358606524772</v>
+        <v>-2.596717934466469</v>
       </c>
       <c r="G34" t="n">
-        <v>1.826951831897706</v>
+        <v>1.870105013272604</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7477568922865913</v>
       </c>
       <c r="E35" t="n">
-        <v>5.187567883511713</v>
+        <v>5.202931969572345</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.49073742369168</v>
+        <v>-2.619810785096327</v>
       </c>
       <c r="G35" t="n">
-        <v>1.77788837585081</v>
+        <v>1.815014478706437</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6735925065494723</v>
       </c>
       <c r="E36" t="n">
-        <v>4.993622395355856</v>
+        <v>5.002990063907126</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.459607738345416</v>
+        <v>-2.576437136459703</v>
       </c>
       <c r="G36" t="n">
-        <v>1.686357961031744</v>
+        <v>1.713303148549464</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6020864047497431</v>
       </c>
       <c r="E37" t="n">
-        <v>4.655740986253947</v>
+        <v>4.663838412966126</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.397679798569523</v>
+        <v>-2.522559171833035</v>
       </c>
       <c r="G37" t="n">
-        <v>1.595083054628587</v>
+        <v>1.613381837351945</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5344733925211679</v>
       </c>
       <c r="E38" t="n">
-        <v>4.47383067451145</v>
+        <v>4.471221568572996</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.270537350765103</v>
+        <v>-2.385646082204254</v>
       </c>
       <c r="G38" t="n">
-        <v>1.50172027945543</v>
+        <v>1.510198778719337</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4710757643635801</v>
       </c>
       <c r="E39" t="n">
-        <v>4.130456564491542</v>
+        <v>4.105898555602458</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.242376673211701</v>
+        <v>-2.339618066138357</v>
       </c>
       <c r="G39" t="n">
-        <v>1.395681366757004</v>
+        <v>1.409870114104455</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.41310528053741</v>
       </c>
       <c r="E40" t="n">
-        <v>3.792230584040178</v>
+        <v>3.748310877417554</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.164901411339768</v>
+        <v>-2.252977352375744</v>
       </c>
       <c r="G40" t="n">
-        <v>1.286861062445397</v>
+        <v>1.297272665381667</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3612587781039404</v>
       </c>
       <c r="E41" t="n">
-        <v>3.523110139779615</v>
+        <v>3.480987752356898</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.067728640673384</v>
+        <v>-2.169510053138721</v>
       </c>
       <c r="G41" t="n">
-        <v>1.167595574091429</v>
+        <v>1.173754056938882</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3156797467804597</v>
       </c>
       <c r="E42" t="n">
-        <v>3.197561756901611</v>
+        <v>3.126439894297266</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.958823653572505</v>
+        <v>-2.039411737974256</v>
       </c>
       <c r="G42" t="n">
-        <v>1.068526930979001</v>
+        <v>1.06201803658973</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2757657454971018</v>
       </c>
       <c r="E43" t="n">
-        <v>2.975825713383398</v>
+        <v>2.915700932999778</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.929777456851967</v>
+        <v>-2.006318287945719</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9573384286639396</v>
+        <v>0.9379285493433994</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2405569319275525</v>
       </c>
       <c r="E44" t="n">
-        <v>2.721442994552466</v>
+        <v>2.659569076555937</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.890140071279978</v>
+        <v>-1.962694241061504</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8357675243744268</v>
+        <v>0.8249573283093388</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2079020175557509</v>
       </c>
       <c r="E45" t="n">
-        <v>2.457956875874718</v>
+        <v>2.380961239800648</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.74899941240397</v>
+        <v>-1.81225745599068</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7310280544769094</v>
+        <v>0.7156946294261863</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1775545694501911</v>
       </c>
       <c r="E46" t="n">
-        <v>2.252469707560228</v>
+        <v>2.171723207940614</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.675563373575535</v>
+        <v>-1.714889768904161</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7102705507684605</v>
+        <v>0.7001538775465541</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1482743822635928</v>
       </c>
       <c r="E47" t="n">
-        <v>1.94322130156913</v>
+        <v>1.849219025332155</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.630830420166274</v>
+        <v>-1.663628940480447</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5957005770748549</v>
+        <v>0.5693029075912256</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1193150833510053</v>
       </c>
       <c r="E48" t="n">
-        <v>1.798555356577623</v>
+        <v>1.725896063333551</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.559420928088021</v>
+        <v>-1.596332403874284</v>
       </c>
       <c r="G48" t="n">
-        <v>0.525304358371692</v>
+        <v>0.5059090795320609</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.09044323469201709</v>
       </c>
       <c r="E49" t="n">
-        <v>1.607071509503038</v>
+        <v>1.518951767024334</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.543691830004662</v>
+        <v>-1.576645115416471</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4488401798027125</v>
+        <v>0.4191676224511751</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.06171045892955009</v>
       </c>
       <c r="E50" t="n">
-        <v>1.500412076365976</v>
+        <v>1.411264460031272</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.422850949760603</v>
+        <v>-1.449215038138141</v>
       </c>
       <c r="G50" t="n">
-        <v>0.395085589239727</v>
+        <v>0.3643836979840989</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.03376510087512227</v>
       </c>
       <c r="E51" t="n">
-        <v>1.353953192318833</v>
+        <v>1.256524183212496</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.365209711179619</v>
+        <v>-1.381782717059523</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3259523121352001</v>
+        <v>0.2939203170687541</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.007439338435739878</v>
       </c>
       <c r="E52" t="n">
-        <v>1.264989542043584</v>
+        <v>1.174339536223336</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.305128732238725</v>
+        <v>-1.324040735160266</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2598092135208542</v>
+        <v>0.2293263294788624</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.01730574038373087</v>
       </c>
       <c r="E53" t="n">
-        <v>1.040651692827372</v>
+        <v>0.9420546452483074</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.252454577263012</v>
+        <v>-1.258538597657829</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2202944719885012</v>
+        <v>0.1894611764046913</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.03983994674770231</v>
       </c>
       <c r="E54" t="n">
-        <v>1.112690465632807</v>
+        <v>1.032570326644192</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.246046426192014</v>
+        <v>-1.249273132472922</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1319221411900703</v>
+        <v>0.101351654262624</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.06035528774979215</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9277651545825839</v>
+        <v>0.8416865593349707</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.219675037574021</v>
+        <v>-1.221977533413384</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08474944742090121</v>
+        <v>0.05538934036081818</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.07850356957332746</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9060659198554989</v>
+        <v>0.800470861776709</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.187224008705485</v>
+        <v>-1.189644768440211</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04801025730936562</v>
+        <v>0.03236438196718799</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.09496147451070311</v>
       </c>
       <c r="E57" t="n">
-        <v>0.80730096674598</v>
+        <v>0.7020723807380082</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.15516281267722</v>
+        <v>-1.144088347907678</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01826469755328269</v>
+        <v>-0.005098991997438307</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1096692550531282</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7549976639853576</v>
+        <v>0.6577219599285655</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.143156837225678</v>
+        <v>-1.12273806467432</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.076330358208601</v>
+        <v>-0.09247118985359666</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1231468015611595</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6235962558997565</v>
+        <v>0.4925072981056099</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.079593643587968</v>
+        <v>-1.073550504539697</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1390306634245842</v>
+        <v>-0.1580273491353972</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1356545626202492</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6381178942119344</v>
+        <v>0.4880015896970656</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.0276991542928</v>
+        <v>-1.011054606056441</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1659933715193951</v>
+        <v>-0.1953636989161145</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1472705111680228</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5057878955405154</v>
+        <v>0.3608387012193725</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.030425064078527</v>
+        <v>-1.015739900380167</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.212657968552928</v>
+        <v>-0.2512660202208267</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1582516635345554</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4162387659808122</v>
+        <v>0.2637834644243077</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.021194640047802</v>
+        <v>-0.9948816533534452</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2805867059824552</v>
+        <v>-0.3174587604702635</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1688644260978248</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3652159253959168</v>
+        <v>0.2249257445328636</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.103033255639416</v>
+        <v>-1.082531260346876</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3132509018722647</v>
+        <v>-0.3543220546695264</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.179301085670896</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2823654964773027</v>
+        <v>0.1201220325193463</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.051309591970885</v>
+        <v>-1.045094167247886</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3691415427922496</v>
+        <v>-0.4104798843901477</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1897162346881007</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2086038669245952</v>
+        <v>0.03602618257918701</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9898065261894466</v>
+        <v>-0.9642148032519989</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3960078877130606</v>
+        <v>-0.4348364066426865</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1998466630247469</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1492602122696111</v>
+        <v>-0.01433233612434492</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.04387940723625</v>
+        <v>-1.022746671168438</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4189510834135999</v>
+        <v>-0.4606339963609524</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2094971263537684</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1849437876114197</v>
+        <v>0.01921080871619153</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.029169422720345</v>
+        <v>-0.9958525853338995</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4398589720754125</v>
+        <v>-0.4852577074141275</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2184000532955496</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09467339429480763</v>
+        <v>-0.07496667329169228</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.076201951872787</v>
+        <v>-1.059006965506155</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4529541434027726</v>
+        <v>-0.4918615049293076</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2262072170652196</v>
       </c>
       <c r="E69" t="n">
-        <v>0.05268825139263709</v>
+        <v>-0.1228197494712249</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.110770050473141</v>
+        <v>-1.090157091525692</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4663559248292236</v>
+        <v>-0.4938325698520343</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2323919289725961</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001811415616832564</v>
+        <v>-0.1529872631255804</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.190579199218393</v>
+        <v>-1.169758913442035</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5041186086524861</v>
+        <v>-0.5375887510884771</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2362206679556976</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.05702414230251528</v>
+        <v>-0.2151356701632001</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.339639888963535</v>
+        <v>-1.310735316907815</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5821859200252834</v>
+        <v>-0.6216773007881818</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2374076919292672</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.1034025699102301</v>
+        <v>-0.2662227528640955</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.377469734998979</v>
+        <v>-1.361873501291892</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5644448756726518</v>
+        <v>-0.5998028602901877</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2354748097522197</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.107610428508229</v>
+        <v>-0.2526151046568264</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.38826825067934</v>
+        <v>-1.373483803710798</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5906907001548265</v>
+        <v>-0.6390825340799045</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2301409007780425</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.06362209962533168</v>
+        <v>-0.2092794172705653</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.42872618327842</v>
+        <v>-1.409011153906879</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5977573329148246</v>
+        <v>-0.639970243319177</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2210902537904028</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.01180061273470923</v>
+        <v>-0.1471996324932183</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.494613773476857</v>
+        <v>-1.462175885041138</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5788292694642843</v>
+        <v>-0.6351929659657236</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2080192661998937</v>
       </c>
       <c r="E76" t="n">
-        <v>0.03521439584064177</v>
+        <v>-0.1152771410335905</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.410074068917061</v>
+        <v>-1.367259618699254</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5818384285796471</v>
+        <v>-0.6338307410969058</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1906184441285956</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1637117682734255</v>
+        <v>0.01294866245428412</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.404654370403608</v>
+        <v>-1.370854257099072</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4872944745009452</v>
+        <v>-0.5338495679276599</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1691765069484098</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3055510601609328</v>
+        <v>0.1785998786564215</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.357972252792984</v>
+        <v>-1.322742752407448</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5090667116325757</v>
+        <v>-0.5661253910252877</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1441453835222073</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3903769341465464</v>
+        <v>0.269087819138579</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.318099799478359</v>
+        <v>-1.286542320041458</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4516065190148639</v>
+        <v>-0.5110275562186661</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1161191724776547</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5312920155925086</v>
+        <v>0.4132631879715403</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.334274212229445</v>
+        <v>-1.309174525498634</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4139825397602376</v>
+        <v>-0.4635613927832243</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.08592737766334027</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5606127013541371</v>
+        <v>0.4219855152666288</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.274781632669188</v>
+        <v>-1.238622081649744</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3237384273092618</v>
+        <v>-0.3761001319935205</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.05432376109406153</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6760835247198334</v>
+        <v>0.5571874285328653</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.209606545939115</v>
+        <v>-1.185273384456031</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.29674213810836</v>
+        <v>-0.3444243886612563</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.02288673078029388</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8186382401718859</v>
+        <v>0.6939851743624649</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.17829873472576</v>
+        <v>-1.157922303569038</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2328445934578317</v>
+        <v>-0.2835695842321817</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.006640940317658272</v>
       </c>
       <c r="E84" t="n">
-        <v>1.042993609965189</v>
+        <v>0.9508017933609414</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.119798987867321</v>
+        <v>-1.101809735339235</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2024536924455671</v>
+        <v>-0.2489226430349183</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.03216390586814636</v>
       </c>
       <c r="E85" t="n">
-        <v>1.129527740217166</v>
+        <v>1.039977150609372</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9951225612884452</v>
+        <v>-0.9646236167174533</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1489268693847633</v>
+        <v>-0.1828189657190269</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.05140917699919411</v>
       </c>
       <c r="E86" t="n">
-        <v>1.333014642647111</v>
+        <v>1.253320837701042</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9133087665143762</v>
+        <v>-0.911107013993286</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07242764966160205</v>
+        <v>-0.1016008705660488</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.06170095118561586</v>
       </c>
       <c r="E87" t="n">
-        <v>1.441883128545719</v>
+        <v>1.387283170138097</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8291603548429443</v>
+        <v>-0.8466181498659396</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01799851688061666</v>
+        <v>-0.04646653455715447</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.06077392370419401</v>
       </c>
       <c r="E88" t="n">
-        <v>1.554641182558506</v>
+        <v>1.489543478377251</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7010717958756151</v>
+        <v>-0.7105694087069762</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01104621979183009</v>
+        <v>-0.01832848774916203</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04595567755797922</v>
       </c>
       <c r="E89" t="n">
-        <v>1.659596739573478</v>
+        <v>1.62037838780358</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6090011632629125</v>
+        <v>-0.6281482339270892</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07339757351408607</v>
+        <v>0.05069820584472853</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.01593481837763852</v>
       </c>
       <c r="E90" t="n">
-        <v>1.703563167735012</v>
+        <v>1.690462156215288</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5163362910772101</v>
+        <v>-0.5264515042510256</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0747437378539039</v>
+        <v>0.05308392442527334</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02956045097643658</v>
       </c>
       <c r="E91" t="n">
-        <v>1.707998793835193</v>
+        <v>1.716905087189736</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3348727540505316</v>
+        <v>-0.3432227690824384</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1147709562661659</v>
+        <v>0.09904185818280646</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.08783830964287931</v>
       </c>
       <c r="E92" t="n">
-        <v>1.70005759226874</v>
+        <v>1.705268503905193</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1948848031422964</v>
+        <v>-0.215008645979291</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1336917194762517</v>
+        <v>0.1181976891355286</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1538932530682914</v>
       </c>
       <c r="E93" t="n">
-        <v>1.721794788246189</v>
+        <v>1.766470799779904</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.01910523333352546</v>
+        <v>-0.01965275136761622</v>
       </c>
       <c r="G93" t="n">
-        <v>0.11640036993562</v>
+        <v>0.1015458406587149</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2210798907632399</v>
       </c>
       <c r="E94" t="n">
-        <v>1.671494671466293</v>
+        <v>1.736249264346185</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0720587094147228</v>
+        <v>0.07074758622908678</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05281089543227342</v>
+        <v>0.04599977108818434</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2838011756087591</v>
       </c>
       <c r="E95" t="n">
-        <v>1.607843874943129</v>
+        <v>1.67327301004102</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1918673356585088</v>
+        <v>0.1842531848644199</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02786451375100739</v>
+        <v>0.02292517105946326</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3380436313422691</v>
       </c>
       <c r="E96" t="n">
-        <v>1.499914199966976</v>
+        <v>1.567550927778321</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2325617960483161</v>
+        <v>0.237168247775133</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00836849159310353</v>
+        <v>0.008330530342739905</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3796093056919316</v>
       </c>
       <c r="E97" t="n">
-        <v>1.350433016371652</v>
+        <v>1.409861353815909</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2996437055851162</v>
+        <v>0.3084083742748411</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03486937257106668</v>
+        <v>-0.05122045114115319</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4096680550243433</v>
       </c>
       <c r="E98" t="n">
-        <v>1.247590148944225</v>
+        <v>1.316520479364116</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3352060969353794</v>
+        <v>0.3422844100801048</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.03769894577124774</v>
+        <v>-0.03245591307679459</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4291850808373099</v>
       </c>
       <c r="E99" t="n">
-        <v>1.080919819174634</v>
+        <v>1.138356651022891</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3394008151005601</v>
+        <v>0.3490882341837393</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09192367181950591</v>
+        <v>-0.1066146757102292</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.442175995018174</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9970780176022926</v>
+        <v>1.036604439519373</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3072184350807505</v>
+        <v>0.3267436582004726</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1455775190642188</v>
+        <v>-0.1632484811084867</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.451072476778796</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8716861674588717</v>
+        <v>0.9026450271784998</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3487860042289212</v>
+        <v>0.3681243411930069</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08706755186914357</v>
+        <v>-0.08429346049641705</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4594688921905773</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7240169035443659</v>
+        <v>0.7561350414481754</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2816077315181211</v>
+        <v>0.3015446881994793</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1957944131029326</v>
+        <v>-0.1957652121411144</v>
       </c>
     </row>
   </sheetData>
